--- a/Tables/tot_tut_iv.xlsx
+++ b/Tables/tot_tut_iv.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\Dropbox\Apps\ShareLaTeX\Donde2020\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6398EF1-3B21-4F9A-B363-AADF7749A5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE6B102-E572-4529-A11A-EFBAAC349C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-7845" windowWidth="29040" windowHeight="15840" xr2:uid="{D6E9BB99-C64B-45A7-A3A2-F63EE72D8D6F}"/>
+    <workbookView xWindow="-28920" yWindow="-10695" windowWidth="29040" windowHeight="15720" xr2:uid="{D6E9BB99-C64B-45A7-A3A2-F63EE72D8D6F}"/>
   </bookViews>
   <sheets>
     <sheet name="tot_tut_iv" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -128,50 +128,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -193,11 +149,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -208,34 +195,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -855,34 +839,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B375A109-32C6-4CEB-83F6-F23E4AB25B47}">
-  <dimension ref="A3:I18"/>
+  <dimension ref="A3:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="A3:I17"/>
+      <selection activeCell="A3" sqref="A3:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.7265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="1"/>
-    <col min="3" max="3" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="8.7265625" style="1"/>
+    <col min="2" max="6" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="10.7265625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="I3" s="13"/>
     </row>
     <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="str">
@@ -893,7 +876,7 @@
         <f>[1]tot_tut!B2</f>
         <v>(1)</v>
       </c>
-      <c r="C4" s="6" t="str">
+      <c r="C4" s="5" t="str">
         <f>[1]tot_tut!C2</f>
         <v>(2)</v>
       </c>
@@ -913,7 +896,7 @@
         <f>[1]tot_tut!G2</f>
         <v>(6)</v>
       </c>
-      <c r="H4" s="5" t="str">
+      <c r="H4" s="10" t="str">
         <f>[1]tot_tut!H2</f>
         <v>(7)</v>
       </c>
@@ -924,412 +907,408 @@
     </row>
     <row r="5" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="7" t="str">
-        <f>[1]tot_tut!B5</f>
-        <v>-0.0064</v>
-      </c>
-      <c r="C5" s="8" t="str">
-        <f>[1]tot_tut!C5</f>
-        <v>-0.010</v>
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="str">
+        <f>[1]tot_tut!D74</f>
+        <v>0.051</v>
+      </c>
+      <c r="C5" s="1" t="str">
+        <f>[1]tot_tut!E74</f>
+        <v>0.072</v>
       </c>
       <c r="D5" s="1" t="str">
-        <f>[1]tot_tut!D5</f>
-        <v/>
+        <f>[1]tot_tut!F74</f>
+        <v>0.074</v>
       </c>
       <c r="E5" s="1" t="str">
-        <f>[1]tot_tut!E5</f>
+        <f>[1]tot_tut!G74</f>
         <v/>
       </c>
       <c r="F5" s="1" t="str">
-        <f>[1]tot_tut!F5</f>
+        <f>[1]tot_tut!H74</f>
         <v/>
       </c>
       <c r="G5" s="1" t="str">
-        <f>[1]tot_tut!G5</f>
-        <v/>
-      </c>
-      <c r="H5" s="1" t="str">
-        <f>[1]tot_tut!H5</f>
-        <v/>
-      </c>
-      <c r="I5" s="1" t="str">
-        <f>[1]tot_tut!I5</f>
+        <f>[1]tot_tut!I74</f>
+        <v/>
+      </c>
+      <c r="H5" s="8" t="str">
+        <f>[1]tot_tut!B74</f>
+        <v/>
+      </c>
+      <c r="I5" s="6" t="str">
+        <f>[1]tot_tut!C74</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="str">
-        <f>[1]tot_tut!A6</f>
-        <v/>
-      </c>
-      <c r="B6" s="7" t="str">
-        <f>[1]tot_tut!B6</f>
-        <v>(0.0036)</v>
-      </c>
-      <c r="C6" s="8" t="str">
-        <f>[1]tot_tut!C6</f>
-        <v>(0.0038)</v>
+        <f>[1]tot_tut!A75</f>
+        <v/>
+      </c>
+      <c r="B6" s="1" t="str">
+        <f>[1]tot_tut!D75</f>
+        <v>(0.13)</v>
+      </c>
+      <c r="C6" s="1" t="str">
+        <f>[1]tot_tut!E75</f>
+        <v>(0.11)</v>
       </c>
       <c r="D6" s="1" t="str">
-        <f>[1]tot_tut!D6</f>
-        <v/>
+        <f>[1]tot_tut!F75</f>
+        <v>(0.085)</v>
       </c>
       <c r="E6" s="1" t="str">
-        <f>[1]tot_tut!E6</f>
+        <f>[1]tot_tut!G75</f>
         <v/>
       </c>
       <c r="F6" s="1" t="str">
-        <f>[1]tot_tut!F6</f>
+        <f>[1]tot_tut!H75</f>
         <v/>
       </c>
       <c r="G6" s="1" t="str">
-        <f>[1]tot_tut!G6</f>
-        <v/>
-      </c>
-      <c r="H6" s="1" t="str">
-        <f>[1]tot_tut!H6</f>
-        <v/>
-      </c>
-      <c r="I6" s="1" t="str">
-        <f>[1]tot_tut!I6</f>
+        <f>[1]tot_tut!I75</f>
+        <v/>
+      </c>
+      <c r="H6" s="8" t="str">
+        <f>[1]tot_tut!B75</f>
+        <v/>
+      </c>
+      <c r="I6" s="6" t="str">
+        <f>[1]tot_tut!C75</f>
         <v/>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7" t="str">
-        <f>[1]tot_tut!B74</f>
-        <v/>
-      </c>
-      <c r="C7" s="8" t="str">
-        <f>[1]tot_tut!C74</f>
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="str">
+        <f>[1]tot_tut!D92</f>
+        <v/>
+      </c>
+      <c r="C7" s="1" t="str">
+        <f>[1]tot_tut!E92</f>
         <v/>
       </c>
       <c r="D7" s="1" t="str">
-        <f>[1]tot_tut!D74</f>
-        <v>0.051</v>
+        <f>[1]tot_tut!F92</f>
+        <v/>
       </c>
       <c r="E7" s="1" t="str">
-        <f>[1]tot_tut!E74</f>
-        <v>0.072</v>
+        <f>[1]tot_tut!G92</f>
+        <v>0.11</v>
       </c>
       <c r="F7" s="1" t="str">
-        <f>[1]tot_tut!F74</f>
-        <v>0.074</v>
+        <f>[1]tot_tut!H92</f>
+        <v>0.11</v>
       </c>
       <c r="G7" s="1" t="str">
-        <f>[1]tot_tut!G74</f>
-        <v/>
-      </c>
-      <c r="H7" s="1" t="str">
-        <f>[1]tot_tut!H74</f>
-        <v/>
-      </c>
-      <c r="I7" s="1" t="str">
-        <f>[1]tot_tut!I74</f>
+        <f>[1]tot_tut!I92</f>
+        <v>0.11</v>
+      </c>
+      <c r="H7" s="8" t="str">
+        <f>[1]tot_tut!B92</f>
+        <v/>
+      </c>
+      <c r="I7" s="6" t="str">
+        <f>[1]tot_tut!C92</f>
         <v/>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="str">
-        <f>[1]tot_tut!A75</f>
-        <v/>
-      </c>
-      <c r="B8" s="7" t="str">
-        <f>[1]tot_tut!B75</f>
-        <v/>
-      </c>
-      <c r="C8" s="8" t="str">
-        <f>[1]tot_tut!C75</f>
+        <f>[1]tot_tut!A93</f>
+        <v/>
+      </c>
+      <c r="B8" s="1" t="str">
+        <f>[1]tot_tut!D93</f>
+        <v/>
+      </c>
+      <c r="C8" s="1" t="str">
+        <f>[1]tot_tut!E93</f>
         <v/>
       </c>
       <c r="D8" s="1" t="str">
-        <f>[1]tot_tut!D75</f>
-        <v>(0.13)</v>
+        <f>[1]tot_tut!F93</f>
+        <v/>
       </c>
       <c r="E8" s="1" t="str">
-        <f>[1]tot_tut!E75</f>
-        <v>(0.11)</v>
+        <f>[1]tot_tut!G93</f>
+        <v>(0.020)</v>
       </c>
       <c r="F8" s="1" t="str">
-        <f>[1]tot_tut!F75</f>
-        <v>(0.085)</v>
+        <f>[1]tot_tut!H93</f>
+        <v>(0.020)</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f>[1]tot_tut!G75</f>
-        <v/>
-      </c>
-      <c r="H8" s="1" t="str">
-        <f>[1]tot_tut!H75</f>
-        <v/>
-      </c>
-      <c r="I8" s="1" t="str">
-        <f>[1]tot_tut!I75</f>
+        <f>[1]tot_tut!I93</f>
+        <v>(0.015)</v>
+      </c>
+      <c r="H8" s="8" t="str">
+        <f>[1]tot_tut!B93</f>
+        <v/>
+      </c>
+      <c r="I8" s="6" t="str">
+        <f>[1]tot_tut!C93</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7" t="str">
-        <f>[1]tot_tut!B92</f>
-        <v/>
-      </c>
-      <c r="C9" s="8" t="str">
-        <f>[1]tot_tut!C92</f>
+        <v>1</v>
+      </c>
+      <c r="B9" s="1" t="str">
+        <f>[1]tot_tut!D5</f>
+        <v/>
+      </c>
+      <c r="C9" s="1" t="str">
+        <f>[1]tot_tut!E5</f>
         <v/>
       </c>
       <c r="D9" s="1" t="str">
-        <f>[1]tot_tut!D92</f>
+        <f>[1]tot_tut!F5</f>
         <v/>
       </c>
       <c r="E9" s="1" t="str">
-        <f>[1]tot_tut!E92</f>
+        <f>[1]tot_tut!G5</f>
         <v/>
       </c>
       <c r="F9" s="1" t="str">
-        <f>[1]tot_tut!F92</f>
+        <f>[1]tot_tut!H5</f>
         <v/>
       </c>
       <c r="G9" s="1" t="str">
-        <f>[1]tot_tut!G92</f>
-        <v>0.11</v>
-      </c>
-      <c r="H9" s="1" t="str">
-        <f>[1]tot_tut!H92</f>
-        <v>0.11</v>
-      </c>
-      <c r="I9" s="1" t="str">
-        <f>[1]tot_tut!I92</f>
-        <v>0.11</v>
+        <f>[1]tot_tut!I5</f>
+        <v/>
+      </c>
+      <c r="H9" s="8" t="str">
+        <f>[1]tot_tut!B5</f>
+        <v>-0.0064</v>
+      </c>
+      <c r="I9" s="6" t="str">
+        <f>[1]tot_tut!C5</f>
+        <v>-0.010</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="str">
-        <f>[1]tot_tut!A93</f>
-        <v/>
-      </c>
-      <c r="B10" s="7" t="str">
-        <f>[1]tot_tut!B93</f>
-        <v/>
-      </c>
-      <c r="C10" s="8" t="str">
-        <f>[1]tot_tut!C93</f>
+        <f>[1]tot_tut!A6</f>
+        <v/>
+      </c>
+      <c r="B10" s="1" t="str">
+        <f>[1]tot_tut!D6</f>
+        <v/>
+      </c>
+      <c r="C10" s="1" t="str">
+        <f>[1]tot_tut!E6</f>
         <v/>
       </c>
       <c r="D10" s="1" t="str">
-        <f>[1]tot_tut!D93</f>
+        <f>[1]tot_tut!F6</f>
         <v/>
       </c>
       <c r="E10" s="1" t="str">
-        <f>[1]tot_tut!E93</f>
+        <f>[1]tot_tut!G6</f>
         <v/>
       </c>
       <c r="F10" s="1" t="str">
-        <f>[1]tot_tut!F93</f>
+        <f>[1]tot_tut!H6</f>
         <v/>
       </c>
       <c r="G10" s="1" t="str">
-        <f>[1]tot_tut!G93</f>
-        <v>(0.020)</v>
-      </c>
-      <c r="H10" s="1" t="str">
-        <f>[1]tot_tut!H93</f>
-        <v>(0.020)</v>
-      </c>
-      <c r="I10" s="1" t="str">
-        <f>[1]tot_tut!I93</f>
-        <v>(0.015)</v>
+        <f>[1]tot_tut!I6</f>
+        <v/>
+      </c>
+      <c r="H10" s="8" t="str">
+        <f>[1]tot_tut!B6</f>
+        <v>(0.0036)</v>
+      </c>
+      <c r="I10" s="9" t="str">
+        <f>[1]tot_tut!C6</f>
+        <v>(0.0038)</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B11" s="7"/>
-      <c r="C11" s="8"/>
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="7" t="str">
+        <f>[1]tot_tut!D98</f>
+        <v>1863</v>
+      </c>
+      <c r="C11" s="7" t="str">
+        <f>[1]tot_tut!E98</f>
+        <v>1863</v>
+      </c>
+      <c r="D11" s="7" t="str">
+        <f>[1]tot_tut!F98</f>
+        <v>1863</v>
+      </c>
+      <c r="E11" s="7" t="str">
+        <f>[1]tot_tut!G98</f>
+        <v>1891</v>
+      </c>
+      <c r="F11" s="7" t="str">
+        <f>[1]tot_tut!H98</f>
+        <v>1891</v>
+      </c>
+      <c r="G11" s="7" t="str">
+        <f>[1]tot_tut!I98</f>
+        <v>1891</v>
+      </c>
+      <c r="H11" s="11" t="str">
+        <f>[1]tot_tut!B98</f>
+        <v>1018</v>
+      </c>
+      <c r="I11" s="7" t="str">
+        <f>[1]tot_tut!C98</f>
+        <v>1018</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="9" t="str">
-        <f>[1]tot_tut!B98</f>
-        <v>1018</v>
-      </c>
-      <c r="C12" s="10" t="str">
-        <f>[1]tot_tut!C98</f>
-        <v>1018</v>
-      </c>
-      <c r="D12" s="9" t="str">
-        <f>[1]tot_tut!D98</f>
-        <v>1863</v>
-      </c>
-      <c r="E12" s="9" t="str">
-        <f>[1]tot_tut!E98</f>
-        <v>1863</v>
-      </c>
-      <c r="F12" s="9" t="str">
-        <f>[1]tot_tut!F98</f>
-        <v>1863</v>
-      </c>
-      <c r="G12" s="9" t="str">
-        <f>[1]tot_tut!G98</f>
-        <v>1891</v>
-      </c>
-      <c r="H12" s="9" t="str">
-        <f>[1]tot_tut!H98</f>
-        <v>1891</v>
-      </c>
-      <c r="I12" s="9" t="str">
-        <f>[1]tot_tut!I98</f>
-        <v>1891</v>
+      <c r="A12" t="str">
+        <f>[1]tot_tut!A99</f>
+        <v>R-sq</v>
+      </c>
+      <c r="B12" s="1" t="str">
+        <f>[1]tot_tut!D99</f>
+        <v>0.011</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f>[1]tot_tut!E99</f>
+        <v>0.044</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f>[1]tot_tut!F99</f>
+        <v>0.050</v>
+      </c>
+      <c r="E12" s="1" t="str">
+        <f>[1]tot_tut!G99</f>
+        <v>0.053</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f>[1]tot_tut!H99</f>
+        <v>0.069</v>
+      </c>
+      <c r="G12" s="1" t="str">
+        <f>[1]tot_tut!I99</f>
+        <v>0.073</v>
+      </c>
+      <c r="H12" s="8" t="str">
+        <f>[1]tot_tut!B99</f>
+        <v>0.003</v>
+      </c>
+      <c r="I12" s="6" t="str">
+        <f>[1]tot_tut!C99</f>
+        <v>0.114</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="str">
-        <f>[1]tot_tut!A99</f>
-        <v>R-sq</v>
-      </c>
-      <c r="B13" s="7" t="str">
-        <f>[1]tot_tut!B99</f>
-        <v>0.003</v>
-      </c>
-      <c r="C13" s="8" t="str">
-        <f>[1]tot_tut!C99</f>
-        <v>0.114</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <f>[1]tot_tut!D99</f>
-        <v>0.011</v>
-      </c>
-      <c r="E13" s="1" t="str">
-        <f>[1]tot_tut!E99</f>
-        <v>0.044</v>
-      </c>
-      <c r="F13" s="1" t="str">
-        <f>[1]tot_tut!F99</f>
-        <v>0.050</v>
-      </c>
-      <c r="G13" s="1" t="str">
-        <f>[1]tot_tut!G99</f>
-        <v>0.053</v>
-      </c>
-      <c r="H13" s="1" t="str">
-        <f>[1]tot_tut!H99</f>
-        <v>0.069</v>
-      </c>
-      <c r="I13" s="1" t="str">
-        <f>[1]tot_tut!I99</f>
-        <v>0.073</v>
+        <f>[1]tot_tut!A100</f>
+        <v>DepVarMean</v>
+      </c>
+      <c r="B13" s="14" t="str">
+        <f>[1]tot_tut!D100</f>
+        <v>0.11</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="8" t="str">
+        <f>[1]tot_tut!B100</f>
+        <v>0.10</v>
+      </c>
+      <c r="I13" s="6" t="str">
+        <f>[1]tot_tut!C100</f>
+        <v>0.10</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" t="str">
-        <f>[1]tot_tut!A100</f>
-        <v>DepVarMean</v>
-      </c>
-      <c r="B14" s="7" t="str">
-        <f>[1]tot_tut!B100</f>
-        <v>0.10</v>
-      </c>
-      <c r="C14" s="8" t="str">
-        <f>[1]tot_tut!C100</f>
-        <v>0.10</v>
-      </c>
-      <c r="D14" s="15" t="str">
-        <f>[1]tot_tut!D100</f>
-        <v>0.11</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <f>[1]tot_tut!D101</f>
+        <v/>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f>[1]tot_tut!E101</f>
+        <v/>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f>[1]tot_tut!F101</f>
+        <v/>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f>[1]tot_tut!G101</f>
+        <v/>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f>[1]tot_tut!H101</f>
+        <v/>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f>[1]tot_tut!I101</f>
+        <v/>
+      </c>
+      <c r="H14" s="8" t="str">
+        <f>[1]tot_tut!B101</f>
+        <v>0.088</v>
+      </c>
+      <c r="I14" s="6" t="str">
+        <f>[1]tot_tut!C101</f>
+        <v>0.0050</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="7" t="str">
-        <f>[1]tot_tut!B101</f>
-        <v>0.088</v>
-      </c>
-      <c r="C15" s="8" t="str">
-        <f>[1]tot_tut!C101</f>
-        <v>0.0050</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <f>[1]tot_tut!D101</f>
-        <v/>
-      </c>
-      <c r="E15" s="1" t="str">
-        <f>[1]tot_tut!E101</f>
-        <v/>
-      </c>
-      <c r="F15" s="1" t="str">
-        <f>[1]tot_tut!F101</f>
-        <v/>
-      </c>
-      <c r="G15" s="1" t="str">
-        <f>[1]tot_tut!G101</f>
-        <v/>
-      </c>
-      <c r="H15" s="1" t="str">
-        <f>[1]tot_tut!H101</f>
-        <v/>
-      </c>
-      <c r="I15" s="1" t="str">
-        <f>[1]tot_tut!I101</f>
-        <v/>
+        <v>8</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="6" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="8" t="s">
+    <row r="16" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+    <row r="17" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
